--- a/Labs/Lab_3.7.1/data.xlsx
+++ b/Labs/Lab_3.7.1/data.xlsx
@@ -135,12 +135,6 @@
     <t>для больших</t>
   </si>
   <si>
-    <t>a, мм</t>
-  </si>
-  <si>
-    <t>h, мм</t>
-  </si>
-  <si>
     <t>mu_0</t>
   </si>
   <si>
@@ -148,6 +142,12 @@
   </si>
   <si>
     <t>сигма_min/max</t>
+  </si>
+  <si>
+    <t>a, м</t>
+  </si>
+  <si>
+    <t>h, м</t>
   </si>
 </sst>
 </file>
@@ -226,7 +226,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -245,6 +245,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -290,7 +291,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -433,11 +433,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="258983616"/>
-        <c:axId val="258985920"/>
+        <c:axId val="154505152"/>
+        <c:axId val="154505728"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="258983616"/>
+        <c:axId val="154505152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -464,19 +464,18 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="258985920"/>
+        <c:crossAx val="154505728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="258985920"/>
+        <c:axId val="154505728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="4000"/>
@@ -504,14 +503,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="258983616"/>
+        <c:crossAx val="154505152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -940,11 +938,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="326369280"/>
-        <c:axId val="326369856"/>
+        <c:axId val="262941504"/>
+        <c:axId val="262942080"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="326369280"/>
+        <c:axId val="262941504"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -987,12 +985,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="326369856"/>
+        <c:crossAx val="262942080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="326369856"/>
+        <c:axId val="262942080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1030,7 +1028,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="326369280"/>
+        <c:crossAx val="262941504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1353,11 +1351,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="174685504"/>
-        <c:axId val="326372736"/>
+        <c:axId val="262942656"/>
+        <c:axId val="262943232"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="174685504"/>
+        <c:axId val="262942656"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -1400,12 +1398,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="326372736"/>
+        <c:crossAx val="262943232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="326372736"/>
+        <c:axId val="262943232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1443,7 +1441,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="174685504"/>
+        <c:crossAx val="262942656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1497,7 +1495,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1724,11 +1721,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="259757120"/>
-        <c:axId val="259757696"/>
+        <c:axId val="154508608"/>
+        <c:axId val="260866048"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="259757120"/>
+        <c:axId val="154508608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1755,19 +1752,18 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="259757696"/>
+        <c:crossAx val="260866048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="259757696"/>
+        <c:axId val="260866048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="4000"/>
@@ -1795,14 +1791,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="259757120"/>
+        <c:crossAx val="154508608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1860,7 +1855,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2032,11 +2026,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="259758272"/>
-        <c:axId val="259758848"/>
+        <c:axId val="260866624"/>
+        <c:axId val="260867200"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="259758272"/>
+        <c:axId val="260866624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2062,19 +2056,18 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="259758848"/>
+        <c:crossAx val="260867200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="259758848"/>
+        <c:axId val="260867200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="12"/>
@@ -2099,14 +2092,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="259758272"/>
+        <c:crossAx val="260866624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2164,7 +2156,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2289,11 +2280,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="148652608"/>
-        <c:axId val="148653184"/>
+        <c:axId val="260868928"/>
+        <c:axId val="260869504"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="148652608"/>
+        <c:axId val="260868928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="100"/>
@@ -2321,19 +2312,18 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="148653184"/>
+        <c:crossAx val="260869504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="148653184"/>
+        <c:axId val="260869504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2357,14 +2347,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="148652608"/>
+        <c:crossAx val="260868928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2613,11 +2602,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="148654912"/>
-        <c:axId val="148655488"/>
+        <c:axId val="260871232"/>
+        <c:axId val="260871808"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="148654912"/>
+        <c:axId val="260871232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="8"/>
@@ -2651,12 +2640,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="148655488"/>
+        <c:crossAx val="260871808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="148655488"/>
+        <c:axId val="260871808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2687,7 +2676,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="148654912"/>
+        <c:crossAx val="260871232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2924,11 +2913,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="148657216"/>
-        <c:axId val="148657792"/>
+        <c:axId val="260873536"/>
+        <c:axId val="262799360"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="148657216"/>
+        <c:axId val="260873536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="70"/>
@@ -2962,12 +2951,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="148657792"/>
+        <c:crossAx val="262799360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="148657792"/>
+        <c:axId val="262799360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3014,7 +3003,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="148657216"/>
+        <c:crossAx val="260873536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3242,11 +3231,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="148659520"/>
-        <c:axId val="236093440"/>
+        <c:axId val="262801088"/>
+        <c:axId val="262801664"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="148659520"/>
+        <c:axId val="262801088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="31008"/>
@@ -3280,12 +3269,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="236093440"/>
+        <c:crossAx val="262801664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="236093440"/>
+        <c:axId val="262801664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3324,7 +3313,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="148659520"/>
+        <c:crossAx val="262801088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3546,11 +3535,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="236095168"/>
-        <c:axId val="236095744"/>
+        <c:axId val="262803392"/>
+        <c:axId val="262803968"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="236095168"/>
+        <c:axId val="262803392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1000000000"/>
@@ -3584,12 +3573,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="236095744"/>
+        <c:crossAx val="262803968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="236095744"/>
+        <c:axId val="262803968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3620,7 +3609,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="236095168"/>
+        <c:crossAx val="262803392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3797,11 +3786,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="236097472"/>
-        <c:axId val="236098048"/>
+        <c:axId val="262805696"/>
+        <c:axId val="262806272"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="236097472"/>
+        <c:axId val="262805696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3834,12 +3823,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="236098048"/>
+        <c:crossAx val="262806272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="236098048"/>
+        <c:axId val="262806272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3870,7 +3859,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="236097472"/>
+        <c:crossAx val="262805696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4217,14 +4206,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>483052</xdr:colOff>
       <xdr:row>159</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>565896</xdr:colOff>
+      <xdr:colOff>402610</xdr:colOff>
       <xdr:row>180</xdr:row>
       <xdr:rowOff>16809</xdr:rowOff>
     </xdr:to>
@@ -4250,15 +4239,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>182</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>449036</xdr:colOff>
+      <xdr:row>181</xdr:row>
+      <xdr:rowOff>176893</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>269791</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>72486</xdr:colOff>
       <xdr:row>203</xdr:row>
-      <xdr:rowOff>32960</xdr:rowOff>
+      <xdr:rowOff>26157</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4275,8 +4264,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2269192" y="32631529"/>
-          <a:ext cx="6169687" cy="3798137"/>
+          <a:off x="2265590" y="33425947"/>
+          <a:ext cx="6154879" cy="3890586"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4287,16 +4276,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>182</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>476249</xdr:colOff>
+      <xdr:row>181</xdr:row>
+      <xdr:rowOff>176893</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>577952</xdr:colOff>
+      <xdr:colOff>407862</xdr:colOff>
       <xdr:row>203</xdr:row>
-      <xdr:rowOff>32960</xdr:rowOff>
+      <xdr:rowOff>26157</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4313,8 +4302,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9071162" y="32631529"/>
-          <a:ext cx="6169687" cy="3798137"/>
+          <a:off x="8824232" y="33425947"/>
+          <a:ext cx="6150077" cy="3890586"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4615,13 +4604,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BJ157"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A149" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="U159" sqref="U159"/>
+    <sheetView tabSelected="1" topLeftCell="A128" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="O141" sqref="O141"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="22.6640625" customWidth="1"/>
+    <col min="2" max="2" width="16.3984375" customWidth="1"/>
     <col min="3" max="3" width="11.9296875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.3984375" customWidth="1"/>
     <col min="9" max="9" width="9.796875" customWidth="1"/>
@@ -6522,63 +6511,63 @@
         <v>33</v>
       </c>
       <c r="C73">
-        <f>C66/(C65*C64)</f>
+        <f t="shared" ref="C73:Q73" si="11">C66/(C65*C64)</f>
         <v>2.2687490626293167E-3</v>
       </c>
       <c r="D73">
-        <f>D66/(D65*D64)</f>
+        <f t="shared" si="11"/>
         <v>6.8539394355444667E-4</v>
       </c>
       <c r="E73">
-        <f>E66/(E65*E64)</f>
+        <f t="shared" si="11"/>
         <v>3.9244246677774364E-4</v>
       </c>
       <c r="F73">
-        <f>F66/(F65*F64)</f>
+        <f t="shared" si="11"/>
         <v>2.6724351150337949E-4</v>
       </c>
       <c r="G73">
-        <f>G66/(G65*G64)</f>
+        <f t="shared" si="11"/>
         <v>1.9979517647250293E-4</v>
       </c>
       <c r="H73">
-        <f>H66/(H65*H64)</f>
+        <f t="shared" si="11"/>
         <v>1.4863597470412307E-4</v>
       </c>
       <c r="I73">
-        <f>I66/(I65*I64)</f>
+        <f t="shared" si="11"/>
         <v>1.2057878894039353E-4</v>
       </c>
       <c r="J73">
-        <f>J66/(J65*J64)</f>
+        <f t="shared" si="11"/>
         <v>1.0201975403277242E-4</v>
       </c>
       <c r="K73">
-        <f>K66/(K65*K64)</f>
+        <f t="shared" si="11"/>
         <v>9.1938564734416389E-5</v>
       </c>
       <c r="L73">
-        <f>L66/(L65*L64)</f>
+        <f t="shared" si="11"/>
         <v>8.0438525274510145E-5</v>
       </c>
       <c r="M73">
-        <f>M66/(M65*M64)</f>
+        <f t="shared" si="11"/>
         <v>7.9510842044003049E-5</v>
       </c>
       <c r="N73">
-        <f>N66/(N65*N64)</f>
+        <f t="shared" si="11"/>
         <v>7.6615761235156437E-5</v>
       </c>
       <c r="O73">
-        <f>O66/(O65*O64)</f>
+        <f t="shared" si="11"/>
         <v>9.3745037300639565E-5</v>
       </c>
       <c r="P73">
-        <f>P66/(P65*P64)</f>
+        <f t="shared" si="11"/>
         <v>1.0889526913426967E-4</v>
       </c>
       <c r="Q73">
-        <f>Q66/(Q65*Q64)</f>
+        <f t="shared" si="11"/>
         <v>1.5171718700688388E-4</v>
       </c>
     </row>
@@ -6591,59 +6580,59 @@
         <v>0.15884484177840727</v>
       </c>
       <c r="D74" s="10">
-        <f t="shared" ref="D74:Q74" si="11">D73/$Q$29</f>
+        <f t="shared" ref="D74:Q74" si="12">D73/$Q$29</f>
         <v>4.7987366391949358E-2</v>
       </c>
       <c r="E74" s="10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>2.7476578423439174E-2</v>
       </c>
       <c r="F74" s="10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1.8710863180198295E-2</v>
       </c>
       <c r="G74" s="10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1.3988516278694765E-2</v>
       </c>
       <c r="H74" s="10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1.0406641383729506E-2</v>
       </c>
       <c r="I74" s="10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>8.4422376042203005E-3</v>
       </c>
       <c r="J74" s="10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>7.1428400586651805E-3</v>
       </c>
       <c r="K74" s="10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>6.4370128054828946E-3</v>
       </c>
       <c r="L74" s="10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>5.631845773771944E-3</v>
       </c>
       <c r="M74" s="10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>5.5668946963709012E-3</v>
       </c>
       <c r="N74" s="10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>5.364197685673742E-3</v>
       </c>
       <c r="O74" s="10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>6.5634916892366585E-3</v>
       </c>
       <c r="P74" s="10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>7.624224327393723E-3</v>
       </c>
       <c r="Q74" s="10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1.0622370257750728E-2</v>
       </c>
       <c r="R74" s="11" t="s">
@@ -6947,79 +6936,79 @@
         <v>1</v>
       </c>
       <c r="D102">
-        <f t="shared" ref="D102:V102" si="12">($C$99-$C$100)/(D96-$C$100)</f>
+        <f t="shared" ref="D102:V102" si="13">($C$99-$C$100)/(D96-$C$100)</f>
         <v>1.0858275334727379</v>
       </c>
       <c r="E102">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1.2297550457742743</v>
       </c>
       <c r="F102">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1.6151060767838075</v>
       </c>
       <c r="G102">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>2.8893779586413091</v>
       </c>
       <c r="H102">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>3.6464731160255739</v>
       </c>
       <c r="I102">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>8.9414032382420974</v>
       </c>
       <c r="J102">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>22.576898118105106</v>
       </c>
       <c r="K102">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>102.02639296187677</v>
       </c>
       <c r="L102">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>246.7446808510638</v>
       </c>
       <c r="M102">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>848.56097560975763</v>
       </c>
       <c r="N102">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>5798.5000000006385</v>
       </c>
       <c r="O102" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P102">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>740.23404255320304</v>
       </c>
       <c r="Q102">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>237.48122866894113</v>
       </c>
       <c r="R102">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>77.919372900335802</v>
       </c>
       <c r="S102">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>20.820466786355471</v>
       </c>
       <c r="T102">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>8.301360057265569</v>
       </c>
       <c r="U102">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>3.6656832788957958</v>
       </c>
       <c r="V102">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1.4531974437158013</v>
       </c>
     </row>
@@ -7032,79 +7021,79 @@
         <v>2500</v>
       </c>
       <c r="D103">
-        <f t="shared" ref="D103:V103" si="13">D95*D95</f>
+        <f t="shared" ref="D103:V103" si="14">D95*D95</f>
         <v>5625</v>
       </c>
       <c r="E103">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>10000</v>
       </c>
       <c r="F103">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>22500</v>
       </c>
       <c r="G103">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>62500</v>
       </c>
       <c r="H103">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>90000</v>
       </c>
       <c r="I103">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>250000</v>
       </c>
       <c r="J103">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>640000</v>
       </c>
       <c r="K103">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>2250000</v>
       </c>
       <c r="L103">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>4000000</v>
       </c>
       <c r="M103">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>6250000</v>
       </c>
       <c r="N103">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>9000000</v>
       </c>
       <c r="O103" s="8">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>25000000</v>
       </c>
       <c r="P103">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>36000000</v>
       </c>
       <c r="Q103">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>56250000</v>
       </c>
       <c r="R103">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>100000000</v>
       </c>
       <c r="S103">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>225000000</v>
       </c>
       <c r="T103">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>400000000</v>
       </c>
       <c r="U103">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>625000000</v>
       </c>
       <c r="V103">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>900000000</v>
       </c>
     </row>
@@ -7118,7 +7107,7 @@
         <v>30</v>
       </c>
       <c r="F141" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G141" s="2">
         <f>5.3*10^7</f>
@@ -7131,21 +7120,21 @@
         <v>1</v>
       </c>
       <c r="L141" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="M141" s="2">
         <f>21/1000</f>
         <v>2.1000000000000001E-2</v>
       </c>
       <c r="O141" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="P141" s="2">
         <f>1.5/1000</f>
         <v>1.5E-3</v>
       </c>
       <c r="R141" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="S141" s="2">
         <f>4*3.14*10^(-7)</f>
@@ -7470,44 +7459,44 @@
       <c r="C151" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="D151">
+      <c r="D151" s="12">
         <f>1/(SQRT(1+0.25*($M$141*$P$141*$G$141*$S$141*2*3.14*D150)^2))</f>
         <v>0.98920385359919139</v>
       </c>
-      <c r="E151">
-        <f t="shared" ref="E151:M151" si="14">1/(SQRT(1+0.25*($M$141*$P$141*$G$141*$S$141*2*3.14*E150)^2))</f>
+      <c r="E151" s="12">
+        <f t="shared" ref="E151:M151" si="15">1/(SQRT(1+0.25*($M$141*$P$141*$G$141*$S$141*2*3.14*E150)^2))</f>
         <v>0.97618790619150064</v>
       </c>
-      <c r="F151">
-        <f t="shared" si="14"/>
+      <c r="F151" s="12">
+        <f t="shared" si="15"/>
         <v>0.95879953777277216</v>
       </c>
-      <c r="G151">
-        <f t="shared" si="14"/>
+      <c r="G151" s="12">
+        <f t="shared" si="15"/>
         <v>0.93775084393334329</v>
       </c>
-      <c r="H151">
-        <f t="shared" si="14"/>
+      <c r="H151" s="12">
+        <f t="shared" si="15"/>
         <v>0.91381432453696332</v>
       </c>
-      <c r="I151">
-        <f t="shared" si="14"/>
+      <c r="I151" s="12">
+        <f t="shared" si="15"/>
         <v>0.88775799569983749</v>
       </c>
-      <c r="J151">
-        <f t="shared" si="14"/>
+      <c r="J151" s="12">
+        <f t="shared" si="15"/>
         <v>0.86029565130914709</v>
       </c>
-      <c r="K151">
-        <f t="shared" si="14"/>
+      <c r="K151" s="12">
+        <f t="shared" si="15"/>
         <v>0.8320550092051</v>
       </c>
-      <c r="L151">
-        <f t="shared" si="14"/>
+      <c r="L151" s="12">
+        <f t="shared" si="15"/>
         <v>0.81781140739619551</v>
       </c>
-      <c r="M151">
-        <f t="shared" si="14"/>
+      <c r="M151" s="12">
+        <f t="shared" si="15"/>
         <v>0.8035624364267957</v>
       </c>
       <c r="N151" t="s">
@@ -7568,60 +7557,60 @@
       <c r="C153" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="D153">
+      <c r="D153" s="12">
         <f>1/(SQRT(1+0.25*($M$141*$P$141*$G$141*$S$141*2*3.14*D152)^2))</f>
         <v>0.8035624364267957</v>
       </c>
-      <c r="E153">
-        <f t="shared" ref="E153:Q153" si="15">1/(SQRT(1+0.25*($M$141*$P$141*$G$141*$S$141*2*3.14*E152)^2))</f>
+      <c r="E153" s="12">
+        <f t="shared" ref="E153:Q153" si="16">1/(SQRT(1+0.25*($M$141*$P$141*$G$141*$S$141*2*3.14*E152)^2))</f>
         <v>0.75661889394920678</v>
       </c>
-      <c r="F153">
-        <f t="shared" si="15"/>
+      <c r="F153" s="12">
+        <f t="shared" si="16"/>
         <v>0.71149149492504138</v>
       </c>
-      <c r="G153">
-        <f t="shared" si="15"/>
+      <c r="G153" s="12">
+        <f t="shared" si="16"/>
         <v>0.6689715382319632</v>
       </c>
-      <c r="H153">
-        <f t="shared" si="15"/>
+      <c r="H153" s="12">
+        <f t="shared" si="16"/>
         <v>0.62942874098840673</v>
       </c>
-      <c r="I153">
-        <f t="shared" si="15"/>
+      <c r="I153" s="12">
+        <f t="shared" si="16"/>
         <v>0.59295638306751652</v>
       </c>
-      <c r="J153">
-        <f t="shared" si="15"/>
+      <c r="J153" s="12">
+        <f t="shared" si="16"/>
         <v>0.5594799334371805</v>
       </c>
-      <c r="K153">
-        <f t="shared" si="15"/>
+      <c r="K153" s="12">
+        <f t="shared" si="16"/>
         <v>0.4103709621716668</v>
       </c>
-      <c r="L153">
-        <f t="shared" si="15"/>
+      <c r="L153" s="12">
+        <f t="shared" si="16"/>
         <v>0.31978393118054399</v>
       </c>
-      <c r="M153">
-        <f t="shared" si="15"/>
+      <c r="M153" s="12">
+        <f t="shared" si="16"/>
         <v>0.26067032669934642</v>
       </c>
-      <c r="N153">
-        <f t="shared" si="15"/>
+      <c r="N153" s="12">
+        <f t="shared" si="16"/>
         <v>0.2195160430053395</v>
       </c>
-      <c r="O153">
-        <f t="shared" si="15"/>
+      <c r="O153" s="12">
+        <f t="shared" si="16"/>
         <v>0.18937099784821232</v>
       </c>
-      <c r="P153">
-        <f t="shared" si="15"/>
+      <c r="P153" s="12">
+        <f t="shared" si="16"/>
         <v>0.16640039720598393</v>
       </c>
-      <c r="Q153">
-        <f t="shared" si="15"/>
+      <c r="Q153" s="12">
+        <f t="shared" si="16"/>
         <v>0.14834312475259376</v>
       </c>
     </row>
@@ -7682,129 +7671,129 @@
       <c r="C155" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="D155">
+      <c r="D155" s="12">
         <f>2*SQRT(2)*D157/$M$141*EXP(-$P$141/D157)</f>
         <v>0.1468390950475417</v>
       </c>
-      <c r="E155">
-        <f t="shared" ref="E155:R155" si="16">2*SQRT(2)*E157/$M$141*EXP(-$P$141/E157)</f>
+      <c r="E155" s="12">
+        <f t="shared" ref="E155:R155" si="17">2*SQRT(2)*E157/$M$141*EXP(-$P$141/E157)</f>
         <v>4.6658440924186646E-2</v>
       </c>
-      <c r="F155">
-        <f t="shared" si="16"/>
+      <c r="F155" s="12">
+        <f t="shared" si="17"/>
         <v>2.5301396302703331E-2</v>
       </c>
-      <c r="G155">
-        <f t="shared" si="16"/>
+      <c r="G155" s="12">
+        <f t="shared" si="17"/>
         <v>1.5982009924939332E-2</v>
       </c>
-      <c r="H155">
-        <f t="shared" si="16"/>
+      <c r="H155" s="12">
+        <f t="shared" si="17"/>
         <v>1.0952364135239676E-2</v>
       </c>
-      <c r="I155">
-        <f t="shared" si="16"/>
+      <c r="I155" s="12">
+        <f t="shared" si="17"/>
         <v>7.9052012414213921E-3</v>
       </c>
-      <c r="J155">
-        <f t="shared" si="16"/>
+      <c r="J155" s="12">
+        <f t="shared" si="17"/>
         <v>5.917433438329003E-3</v>
       </c>
-      <c r="K155">
-        <f t="shared" si="16"/>
+      <c r="K155" s="12">
+        <f t="shared" si="17"/>
         <v>4.5517312827018852E-3</v>
       </c>
-      <c r="L155">
-        <f t="shared" si="16"/>
+      <c r="L155" s="12">
+        <f t="shared" si="17"/>
         <v>3.5764700415165888E-3</v>
       </c>
-      <c r="M155">
-        <f t="shared" si="16"/>
+      <c r="M155" s="12">
+        <f t="shared" si="17"/>
         <v>2.8587987513298044E-3</v>
       </c>
-      <c r="N155">
-        <f t="shared" si="16"/>
+      <c r="N155" s="12">
+        <f t="shared" si="17"/>
         <v>2.3178017141505716E-3</v>
       </c>
-      <c r="O155">
-        <f t="shared" si="16"/>
+      <c r="O155" s="12">
+        <f t="shared" si="17"/>
         <v>1.9018212319782029E-3</v>
       </c>
-      <c r="P155">
-        <f t="shared" si="16"/>
+      <c r="P155" s="12">
+        <f t="shared" si="17"/>
         <v>1.5766032778591586E-3</v>
       </c>
-      <c r="Q155">
-        <f t="shared" si="16"/>
+      <c r="Q155" s="12">
+        <f t="shared" si="17"/>
         <v>1.3187123360528068E-3</v>
       </c>
-      <c r="R155">
-        <f t="shared" si="16"/>
+      <c r="R155" s="12">
+        <f t="shared" si="17"/>
         <v>1.1116876832131472E-3</v>
       </c>
     </row>
     <row r="157" spans="2:19" x14ac:dyDescent="0.45">
       <c r="C157" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D157">
         <f>SQRT(2/(2*3.14*D154*$G$141*$S$141))</f>
         <v>2.1737265280748451E-3</v>
       </c>
       <c r="E157">
-        <f t="shared" ref="E157:R157" si="17">SQRT(2/(2*3.14*E154*$G$141*$S$141))</f>
+        <f t="shared" ref="E157:R157" si="18">SQRT(2/(2*3.14*E154*$G$141*$S$141))</f>
         <v>1.2040525769492748E-3</v>
       </c>
       <c r="F157">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>9.3478204004529173E-4</v>
       </c>
       <c r="G157">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>7.9080918321703579E-4</v>
       </c>
       <c r="H157">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>6.9780831788399751E-4</v>
       </c>
       <c r="I157">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>6.3141049818323577E-4</v>
       </c>
       <c r="J157">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>5.8095285147126549E-4</v>
       </c>
       <c r="K157">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>5.4093308254493102E-4</v>
       </c>
       <c r="L157">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>5.0818672153607903E-4</v>
       </c>
       <c r="M157">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>4.8074773716772206E-4</v>
       </c>
       <c r="N157">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>4.5732176409678032E-4</v>
       </c>
       <c r="O157">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>4.3701722637829528E-4</v>
       </c>
       <c r="P157">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>4.1919730048549451E-4</v>
       </c>
       <c r="Q157">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>4.0339337018420647E-4</v>
       </c>
       <c r="R157">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>3.8925190066633244E-4</v>
       </c>
     </row>
